--- a/database/impor-siswa-1.xlsx
+++ b/database/impor-siswa-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\banksampah_sekolah\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF76DCF-F627-4174-A347-91B02878EC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB66A11-48EC-419B-A591-8BD28F0B7D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -662,17 +662,21 @@
     <t>CHIKA RAHMAWATI</t>
   </si>
   <si>
-    <t>DEFNE MAULLANA EL SYARIF</t>
+    <t xml:space="preserve">	RAJA SITA ATMAJA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1004,12 +1008,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -2988,7 +2993,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="B117">
         <v>252610116</v>
@@ -3005,7 +3010,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>252610117</v>
@@ -3022,7 +3027,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119">
         <v>252610118</v>
@@ -3039,7 +3044,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120">
         <v>252610119</v>
@@ -3056,7 +3061,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121">
         <v>252610120</v>
@@ -3073,7 +3078,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122">
         <v>252610121</v>
@@ -3090,7 +3095,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123">
         <v>252610122</v>
@@ -3107,7 +3112,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>252610123</v>
@@ -3124,7 +3129,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>252610124</v>
@@ -3141,7 +3146,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>252610125</v>
@@ -3153,12 +3158,12 @@
         <v>252610125</v>
       </c>
       <c r="E126" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B127">
         <v>252610126</v>
@@ -3175,7 +3180,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="B128">
         <v>252610127</v>
@@ -3192,7 +3197,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129">
         <v>252610128</v>
@@ -3209,7 +3214,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130">
         <v>252610129</v>
@@ -3226,7 +3231,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131">
         <v>252610130</v>
@@ -3243,7 +3248,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132">
         <v>252610131</v>
@@ -3260,7 +3265,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133">
         <v>252610132</v>
@@ -3277,7 +3282,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134">
         <v>252610133</v>
@@ -3294,7 +3299,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135">
         <v>252610134</v>
@@ -3311,7 +3316,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136">
         <v>252610135</v>
@@ -3328,7 +3333,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137">
         <v>252610136</v>
@@ -3345,7 +3350,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138">
         <v>252610137</v>
@@ -3362,7 +3367,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139">
         <v>252610138</v>
@@ -3379,7 +3384,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140">
         <v>252610139</v>
@@ -3396,7 +3401,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141">
         <v>252610140</v>
@@ -3413,7 +3418,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142">
         <v>252610141</v>
@@ -3430,7 +3435,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>252610142</v>
@@ -3447,7 +3452,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144">
         <v>252610143</v>
@@ -3464,7 +3469,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>252610144</v>
@@ -3481,7 +3486,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146">
         <v>252610145</v>
@@ -3498,7 +3503,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147">
         <v>252610146</v>
@@ -3515,7 +3520,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148">
         <v>252610147</v>
@@ -3532,7 +3537,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149">
         <v>252610148</v>
@@ -3549,7 +3554,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150">
         <v>252610149</v>
@@ -3566,7 +3571,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151">
         <v>252610150</v>
@@ -3583,7 +3588,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152">
         <v>252610151</v>
@@ -3600,7 +3605,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153">
         <v>252610152</v>
@@ -3617,7 +3622,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154">
         <v>252610153</v>
@@ -3634,7 +3639,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155">
         <v>252610154</v>
@@ -3651,7 +3656,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156">
         <v>252610155</v>
@@ -3668,7 +3673,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157">
         <v>252610156</v>
@@ -3685,7 +3690,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158">
         <v>252610157</v>
@@ -3702,7 +3707,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159">
         <v>252610158</v>
@@ -3719,7 +3724,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160">
         <v>252610159</v>
@@ -3731,12 +3736,12 @@
         <v>252610159</v>
       </c>
       <c r="E160" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B161">
         <v>252610160</v>
@@ -3753,7 +3758,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B162">
         <v>252610161</v>
@@ -3770,7 +3775,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B163">
         <v>252610162</v>
@@ -3787,7 +3792,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B164">
         <v>252610163</v>
@@ -3804,7 +3809,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B165">
         <v>252610164</v>
@@ -3821,7 +3826,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B166">
         <v>252610165</v>
@@ -3838,7 +3843,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B167">
         <v>252610166</v>
@@ -3855,7 +3860,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B168">
         <v>252610167</v>
@@ -3872,7 +3877,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B169">
         <v>252610168</v>
@@ -3889,7 +3894,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B170">
         <v>252610169</v>
@@ -3906,7 +3911,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B171">
         <v>252610170</v>
@@ -3923,7 +3928,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B172">
         <v>252610171</v>
@@ -3940,7 +3945,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B173">
         <v>252610172</v>
@@ -3957,7 +3962,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B174">
         <v>252610173</v>
@@ -3974,7 +3979,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B175">
         <v>252610174</v>
@@ -3991,7 +3996,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B176">
         <v>252610175</v>
@@ -4008,7 +4013,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B177">
         <v>252610176</v>
@@ -4025,7 +4030,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B178">
         <v>252610177</v>
@@ -4042,7 +4047,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B179">
         <v>252610178</v>
@@ -4059,7 +4064,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B180">
         <v>252610179</v>
@@ -4076,7 +4081,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B181">
         <v>252610180</v>
@@ -4093,7 +4098,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B182">
         <v>252610181</v>
@@ -4110,7 +4115,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183">
         <v>252610182</v>
@@ -4127,7 +4132,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B184">
         <v>252610183</v>
@@ -4144,7 +4149,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B185">
         <v>252610184</v>
@@ -4161,7 +4166,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B186">
         <v>252610185</v>
@@ -4178,7 +4183,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187">
         <v>252610186</v>
@@ -4195,7 +4200,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B188">
         <v>252610187</v>
@@ -4212,7 +4217,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B189">
         <v>252610188</v>
@@ -4229,7 +4234,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B190">
         <v>252610189</v>
@@ -4246,7 +4251,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B191">
         <v>252610190</v>
@@ -4263,7 +4268,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192">
         <v>252610191</v>
@@ -4280,7 +4285,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B193">
         <v>252610192</v>
@@ -4297,7 +4302,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194">
         <v>252610193</v>
@@ -4309,12 +4314,12 @@
         <v>252610193</v>
       </c>
       <c r="E194" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B195">
         <v>252610194</v>
@@ -4331,7 +4336,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B196">
         <v>252610195</v>
@@ -4348,7 +4353,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B197">
         <v>252610196</v>
@@ -4365,7 +4370,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B198">
         <v>252610197</v>
@@ -4382,7 +4387,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B199">
         <v>252610198</v>
@@ -4399,7 +4404,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B200">
         <v>252610199</v>
@@ -4415,6 +4420,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>